--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_02_end.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_02_end.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Lava, Kroos, and Mr.Nothing decide to split up to look for clues that might lead to a breakthrough. Unbeknownst to them, the monsters known as 'Ink Spirits' make another attack.
+    <t xml:space="preserve">Lava, Kroos, and Mr. Nothing decide to split up to look for clues that might lead to a breakthrough. Unbeknownst to them, the monsters known as 'Ink Spirits' make another attack.
 </t>
   </si>
   <si>
